--- a/src/WebMarket/WebMarket/App_Data/metadata/metadata.xlsx
+++ b/src/WebMarket/WebMarket/App_Data/metadata/metadata.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
   <si>
     <t>Вольтметр</t>
   </si>
@@ -141,9 +141,6 @@
     <t>Терморегулятор, index</t>
   </si>
   <si>
-    <t>Реле,часу, index</t>
-  </si>
-  <si>
     <t>ДБЖ, index</t>
   </si>
   <si>
@@ -151,6 +148,12 @@
   </si>
   <si>
     <t>Вольтметр, index</t>
+  </si>
+  <si>
+    <t>Релe часу</t>
+  </si>
+  <si>
+    <t>Реле часу, index</t>
   </si>
 </sst>
 </file>
@@ -499,7 +502,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -507,7 +510,8 @@
     <col min="1" max="1" width="23.7109375" customWidth="1"/>
     <col min="2" max="2" width="103.5703125" customWidth="1"/>
     <col min="3" max="3" width="25.5703125" customWidth="1"/>
-    <col min="4" max="4" width="32.28515625" customWidth="1"/>
+    <col min="4" max="4" width="31.28515625" customWidth="1"/>
+    <col min="5" max="5" width="33.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
@@ -637,10 +641,10 @@
         <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>6</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="E8" t="s">
         <v>6</v>
@@ -657,7 +661,7 @@
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E9" t="s">
         <v>4</v>
@@ -674,7 +678,7 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E10" t="s">
         <v>2</v>
@@ -691,7 +695,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E11" t="s">
         <v>0</v>

--- a/src/WebMarket/WebMarket/App_Data/metadata/metadata.xlsx
+++ b/src/WebMarket/WebMarket/App_Data/metadata/metadata.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
   <si>
     <t>Вольтметр</t>
   </si>
@@ -36,9 +36,6 @@
     <t>ups</t>
   </si>
   <si>
-    <t>Реле,часу</t>
-  </si>
-  <si>
     <t>time-relay</t>
   </si>
   <si>
@@ -123,37 +120,61 @@
     <t>MetadataDetailsDescription</t>
   </si>
   <si>
-    <t>Стабілізотор напруги, index</t>
-  </si>
-  <si>
-    <t>Акумулятор, index</t>
-  </si>
-  <si>
-    <t>Зарядний пристрій, index</t>
-  </si>
-  <si>
-    <t>Перетворювач, index</t>
-  </si>
-  <si>
-    <t>Реле струму, index</t>
-  </si>
-  <si>
-    <t>Терморегулятор, index</t>
-  </si>
-  <si>
-    <t>ДБЖ, index</t>
-  </si>
-  <si>
-    <t>Реле напруги, index</t>
-  </si>
-  <si>
-    <t>Вольтметр, index</t>
-  </si>
-  <si>
     <t>Релe часу</t>
   </si>
   <si>
-    <t>Реле часу, index</t>
+    <t>Стабілізотор напруги, нормалізатор напруги</t>
+  </si>
+  <si>
+    <t>Акумулятор, батарея</t>
+  </si>
+  <si>
+    <t>Зарядний пристрій, зярядка</t>
+  </si>
+  <si>
+    <t>Перетворювач, конвертор</t>
+  </si>
+  <si>
+    <t>Реле струму, відсікач</t>
+  </si>
+  <si>
+    <t>Терморегулятор, термоконтролер</t>
+  </si>
+  <si>
+    <t>Реле часу, відсікач напруги</t>
+  </si>
+  <si>
+    <t>Реле напруги, відсікач напруги</t>
+  </si>
+  <si>
+    <t>Акумулятори, батареї: Luxeon, Ventura, Vimar, B.B. battery</t>
+  </si>
+  <si>
+    <t>Стабілізотори напруги, нормалізатори напруги: Phantom, Luxeon, Volter, Вольт, Вольтер</t>
+  </si>
+  <si>
+    <t>Перетворювачі напруги: Luxeon</t>
+  </si>
+  <si>
+    <t>Реле струму: Енергохіт</t>
+  </si>
+  <si>
+    <t>Терморегулятори: Енергохіт</t>
+  </si>
+  <si>
+    <t>Реле часу:  Енергохіт</t>
+  </si>
+  <si>
+    <t>ДБЖ, ББЖ, UPS, блоки безперебійного живлення, джерела безперебійного живлення: Luxeon, Вольтер, Вольт</t>
+  </si>
+  <si>
+    <t>ДБЖ, ББЖ, UPS, блок безперебійного живлення, джерело безперебійного живлення</t>
+  </si>
+  <si>
+    <t>Реле напруги: Енергохіт, Volter, Вольтер</t>
+  </si>
+  <si>
+    <t>Вольтметри:  Енергохіт</t>
   </si>
 </sst>
 </file>
@@ -208,6 +229,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -255,7 +279,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -290,7 +314,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -502,7 +526,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="P13" sqref="P13"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -510,144 +534,144 @@
     <col min="1" max="1" width="23.7109375" customWidth="1"/>
     <col min="2" max="2" width="103.5703125" customWidth="1"/>
     <col min="3" max="3" width="25.5703125" customWidth="1"/>
-    <col min="4" max="4" width="31.28515625" customWidth="1"/>
-    <col min="5" max="5" width="33.42578125" customWidth="1"/>
+    <col min="4" max="4" width="96.28515625" customWidth="1"/>
+    <col min="5" max="5" width="84.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D2" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" t="s">
         <v>35</v>
-      </c>
-      <c r="E2" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E3" t="s">
         <v>36</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>37</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
+        <v>45</v>
+      </c>
+      <c r="E5" t="s">
         <v>38</v>
-      </c>
-      <c r="E5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" t="s">
         <v>39</v>
-      </c>
-      <c r="E6" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" t="s">
         <v>40</v>
-      </c>
-      <c r="E7" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
       <c r="D8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>6</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -655,16 +679,16 @@
         <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C9" t="s">
         <v>4</v>
       </c>
       <c r="D9" t="s">
-        <v>41</v>
+        <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -672,16 +696,16 @@
         <v>3</v>
       </c>
       <c r="B10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" t="s">
         <v>2</v>
       </c>
       <c r="D10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10" t="s">
         <v>42</v>
-      </c>
-      <c r="E10" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -689,13 +713,13 @@
         <v>1</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s">
         <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="E11" t="s">
         <v>0</v>
